--- a/Application environment.xlsx
+++ b/Application environment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2115" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -92,6 +92,30 @@
   </si>
   <si>
     <t>Android/Report Service</t>
+  </si>
+  <si>
+    <t>10.10.0.17: 8383</t>
+  </si>
+  <si>
+    <t>10.10.0.17: 8686</t>
+  </si>
+  <si>
+    <t>10.10.0.17: 8386</t>
+  </si>
+  <si>
+    <t>EVN Webapplication</t>
+  </si>
+  <si>
+    <t>EVN Android/Report Service</t>
+  </si>
+  <si>
+    <t>EVN Hardware server</t>
+  </si>
+  <si>
+    <t>Unknow Service</t>
+  </si>
+  <si>
+    <t>10.10.0.17: 8989</t>
   </si>
 </sst>
 </file>
@@ -471,17 +495,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
@@ -582,7 +606,9 @@
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
@@ -592,17 +618,13 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -614,41 +636,119 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
